--- a/team_specific_matrix/Cal Poly_A.xlsx
+++ b/team_specific_matrix/Cal Poly_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1792452830188679</v>
+        <v>0.1773584905660377</v>
       </c>
       <c r="C2">
-        <v>0.5707547169811321</v>
+        <v>0.5735849056603773</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.004716981132075472</v>
+        <v>0.003773584905660377</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1273584905660377</v>
+        <v>0.1283018867924528</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1179245283018868</v>
+        <v>0.1169811320754717</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.008064516129032258</v>
+        <v>0.006451612903225806</v>
       </c>
       <c r="C3">
-        <v>0.008064516129032258</v>
+        <v>0.01290322580645161</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03225806451612903</v>
+        <v>0.02580645161290323</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7016129032258065</v>
+        <v>0.7161290322580646</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.25</v>
+        <v>0.2387096774193548</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.03125</v>
+        <v>0.025</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5625</v>
+        <v>0.575</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.40625</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.08955223880597014</v>
+        <v>0.0859375</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.00390625</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.04975124378109453</v>
+        <v>0.0625</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.208955223880597</v>
+        <v>0.21484375</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02487562189054726</v>
+        <v>0.01953125</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.154228855721393</v>
+        <v>0.1328125</v>
       </c>
       <c r="R6">
-        <v>0.07462686567164178</v>
+        <v>0.078125</v>
       </c>
       <c r="S6">
-        <v>0.3980099502487562</v>
+        <v>0.40234375</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.101123595505618</v>
+        <v>0.1071428571428571</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03370786516853932</v>
+        <v>0.03125</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.07865168539325842</v>
+        <v>0.07589285714285714</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1292134831460674</v>
+        <v>0.125</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01123595505617977</v>
+        <v>0.01339285714285714</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1460674157303371</v>
+        <v>0.1517857142857143</v>
       </c>
       <c r="R7">
-        <v>0.1123595505617977</v>
+        <v>0.09821428571428571</v>
       </c>
       <c r="S7">
-        <v>0.3876404494382023</v>
+        <v>0.3973214285714285</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08648648648648649</v>
+        <v>0.08043478260869565</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02972972972972973</v>
+        <v>0.02391304347826087</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06486486486486487</v>
+        <v>0.06521739130434782</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1081081081081081</v>
+        <v>0.108695652173913</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02702702702702703</v>
+        <v>0.02608695652173913</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1567567567567568</v>
+        <v>0.1847826086956522</v>
       </c>
       <c r="R8">
-        <v>0.05675675675675676</v>
+        <v>0.05434782608695652</v>
       </c>
       <c r="S8">
-        <v>0.4702702702702703</v>
+        <v>0.4565217391304348</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.06481481481481481</v>
+        <v>0.08441558441558442</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.009259259259259259</v>
+        <v>0.006493506493506494</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.09259259259259259</v>
+        <v>0.07792207792207792</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.09259259259259259</v>
+        <v>0.09740259740259741</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.009259259259259259</v>
+        <v>0.01298701298701299</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1666666666666667</v>
+        <v>0.1558441558441558</v>
       </c>
       <c r="R9">
-        <v>0.06481481481481481</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="S9">
-        <v>0.5</v>
+        <v>0.474025974025974</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1090308370044053</v>
+        <v>0.1043627031650984</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01872246696035242</v>
+        <v>0.01967493584260051</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.09251101321585903</v>
+        <v>0.08982035928143713</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.11784140969163</v>
+        <v>0.1146278870829769</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02092511013215859</v>
+        <v>0.02480752780153978</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1629955947136564</v>
+        <v>0.1753635585970915</v>
       </c>
       <c r="R10">
-        <v>0.06607929515418502</v>
+        <v>0.06330196749358426</v>
       </c>
       <c r="S10">
-        <v>0.4118942731277533</v>
+        <v>0.4080410607356715</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1301115241635688</v>
+        <v>0.1299435028248588</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08550185873605948</v>
+        <v>0.1045197740112994</v>
       </c>
       <c r="K11">
-        <v>0.1635687732342007</v>
+        <v>0.172316384180791</v>
       </c>
       <c r="L11">
-        <v>0.6059479553903345</v>
+        <v>0.576271186440678</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01486988847583643</v>
+        <v>0.01694915254237288</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7321428571428571</v>
+        <v>0.7216981132075472</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1904761904761905</v>
+        <v>0.2028301886792453</v>
       </c>
       <c r="K12">
-        <v>0.005952380952380952</v>
+        <v>0.009433962264150943</v>
       </c>
       <c r="L12">
-        <v>0.0119047619047619</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.05952380952380952</v>
+        <v>0.04716981132075472</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6923076923076923</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3076923076923077</v>
+        <v>0.2708333333333333</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>0.02083333333333333</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.0130718954248366</v>
+        <v>0.01507537688442211</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1699346405228758</v>
+        <v>0.1959798994974874</v>
       </c>
       <c r="I15">
-        <v>0.03267973856209151</v>
+        <v>0.03517587939698492</v>
       </c>
       <c r="J15">
-        <v>0.3529411764705883</v>
+        <v>0.3366834170854272</v>
       </c>
       <c r="K15">
-        <v>0.05228758169934641</v>
+        <v>0.05527638190954774</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.0196078431372549</v>
+        <v>0.01507537688442211</v>
       </c>
       <c r="N15">
-        <v>0.006535947712418301</v>
+        <v>0.005025125628140704</v>
       </c>
       <c r="O15">
-        <v>0.03267973856209151</v>
+        <v>0.03015075376884422</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.3202614379084967</v>
+        <v>0.3115577889447236</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02307692307692308</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1846153846153846</v>
+        <v>0.2181818181818182</v>
       </c>
       <c r="I16">
-        <v>0.03076923076923077</v>
+        <v>0.03636363636363636</v>
       </c>
       <c r="J16">
-        <v>0.3615384615384615</v>
+        <v>0.3757575757575757</v>
       </c>
       <c r="K16">
-        <v>0.1230769230769231</v>
+        <v>0.1151515151515152</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02307692307692308</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.03846153846153846</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.2153846153846154</v>
+        <v>0.1878787878787879</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01792114695340502</v>
+        <v>0.01842105263157895</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1935483870967742</v>
+        <v>0.1868421052631579</v>
       </c>
       <c r="I17">
-        <v>0.07526881720430108</v>
+        <v>0.09210526315789473</v>
       </c>
       <c r="J17">
-        <v>0.3906810035842294</v>
+        <v>0.3868421052631579</v>
       </c>
       <c r="K17">
-        <v>0.1290322580645161</v>
+        <v>0.131578947368421</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02150537634408602</v>
+        <v>0.02105263157894737</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.002631578947368421</v>
       </c>
       <c r="O17">
-        <v>0.06093189964157706</v>
+        <v>0.05789473684210526</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1111111111111111</v>
+        <v>0.1026315789473684</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01652892561983471</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2066115702479339</v>
+        <v>0.2026143790849673</v>
       </c>
       <c r="I18">
-        <v>0.09090909090909091</v>
+        <v>0.0915032679738562</v>
       </c>
       <c r="J18">
-        <v>0.3553719008264463</v>
+        <v>0.3594771241830065</v>
       </c>
       <c r="K18">
-        <v>0.1570247933884298</v>
+        <v>0.1372549019607843</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.008264462809917356</v>
+        <v>0.006535947712418301</v>
       </c>
       <c r="N18">
-        <v>0.008264462809917356</v>
+        <v>0.006535947712418301</v>
       </c>
       <c r="O18">
-        <v>0.02479338842975207</v>
+        <v>0.0392156862745098</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1322314049586777</v>
+        <v>0.1372549019607843</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02016498625114574</v>
+        <v>0.02113702623906705</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2227314390467461</v>
+        <v>0.2084548104956268</v>
       </c>
       <c r="I19">
-        <v>0.0614115490375802</v>
+        <v>0.06851311953352769</v>
       </c>
       <c r="J19">
-        <v>0.3464711274060495</v>
+        <v>0.3469387755102041</v>
       </c>
       <c r="K19">
-        <v>0.1310724106324473</v>
+        <v>0.1348396501457726</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02566452795600367</v>
+        <v>0.02551020408163265</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.06416131989000917</v>
+        <v>0.0641399416909621</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1283226397800183</v>
+        <v>0.130466472303207</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Cal Poly_A.xlsx
+++ b/team_specific_matrix/Cal Poly_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1773584905660377</v>
+        <v>0.1868512110726644</v>
       </c>
       <c r="C2">
-        <v>0.5735849056603773</v>
+        <v>0.5570934256055363</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.003773584905660377</v>
+        <v>0.006920415224913495</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1283018867924528</v>
+        <v>0.1280276816608996</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1169811320754717</v>
+        <v>0.1211072664359862</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.006451612903225806</v>
+        <v>0.006097560975609756</v>
       </c>
       <c r="C3">
-        <v>0.01290322580645161</v>
+        <v>0.01219512195121951</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02580645161290323</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7161290322580646</v>
+        <v>0.7317073170731707</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2387096774193548</v>
+        <v>0.225609756097561</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.025</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.575</v>
+        <v>0.6046511627906976</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.4</v>
+        <v>0.3720930232558139</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.0859375</v>
+        <v>0.09124087591240876</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.00390625</v>
+        <v>0.0072992700729927</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.0625</v>
+        <v>0.06204379562043796</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.21484375</v>
+        <v>0.218978102189781</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01953125</v>
+        <v>0.0218978102189781</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1328125</v>
+        <v>0.1240875912408759</v>
       </c>
       <c r="R6">
-        <v>0.078125</v>
+        <v>0.08029197080291971</v>
       </c>
       <c r="S6">
-        <v>0.40234375</v>
+        <v>0.3941605839416059</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1071428571428571</v>
+        <v>0.1061224489795918</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03125</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.07589285714285714</v>
+        <v>0.07755102040816327</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.125</v>
+        <v>0.1265306122448979</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01339285714285714</v>
+        <v>0.01224489795918367</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1517857142857143</v>
+        <v>0.1551020408163265</v>
       </c>
       <c r="R7">
-        <v>0.09821428571428571</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="S7">
-        <v>0.3973214285714285</v>
+        <v>0.3918367346938775</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08043478260869565</v>
+        <v>0.07569721115537849</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02391304347826087</v>
+        <v>0.02390438247011952</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.00199203187250996</v>
       </c>
       <c r="F8">
-        <v>0.06521739130434782</v>
+        <v>0.06772908366533864</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.108695652173913</v>
+        <v>0.099601593625498</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02608695652173913</v>
+        <v>0.02589641434262948</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1847826086956522</v>
+        <v>0.1912350597609562</v>
       </c>
       <c r="R8">
-        <v>0.05434782608695652</v>
+        <v>0.05577689243027888</v>
       </c>
       <c r="S8">
-        <v>0.4565217391304348</v>
+        <v>0.4581673306772908</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.08441558441558442</v>
+        <v>0.07975460122699386</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.006493506493506494</v>
+        <v>0.006134969325153374</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.07792207792207792</v>
+        <v>0.09202453987730061</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.09740259740259741</v>
+        <v>0.09815950920245399</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01298701298701299</v>
+        <v>0.01226993865030675</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1558441558441558</v>
+        <v>0.1595092024539877</v>
       </c>
       <c r="R9">
-        <v>0.09090909090909091</v>
+        <v>0.09815950920245399</v>
       </c>
       <c r="S9">
-        <v>0.474025974025974</v>
+        <v>0.4539877300613497</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1043627031650984</v>
+        <v>0.1057304277643261</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01967493584260051</v>
+        <v>0.01937046004842615</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.08982035928143713</v>
+        <v>0.08716707021791767</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1146278870829769</v>
+        <v>0.1138014527845036</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02480752780153978</v>
+        <v>0.02502017756255044</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1753635585970915</v>
+        <v>0.1799838579499596</v>
       </c>
       <c r="R10">
-        <v>0.06330196749358426</v>
+        <v>0.06456820016142049</v>
       </c>
       <c r="S10">
-        <v>0.4080410607356715</v>
+        <v>0.4043583535108959</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1299435028248588</v>
+        <v>0.1272727272727273</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1045197740112994</v>
+        <v>0.1012987012987013</v>
       </c>
       <c r="K11">
-        <v>0.172316384180791</v>
+        <v>0.1688311688311688</v>
       </c>
       <c r="L11">
-        <v>0.576271186440678</v>
+        <v>0.587012987012987</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01694915254237288</v>
+        <v>0.01558441558441558</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7216981132075472</v>
+        <v>0.7264957264957265</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2028301886792453</v>
+        <v>0.2051282051282051</v>
       </c>
       <c r="K12">
-        <v>0.009433962264150943</v>
+        <v>0.008547008547008548</v>
       </c>
       <c r="L12">
-        <v>0.01886792452830189</v>
+        <v>0.0170940170940171</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.04716981132075472</v>
+        <v>0.04273504273504274</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7083333333333334</v>
+        <v>0.7254901960784313</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2708333333333333</v>
+        <v>0.2549019607843137</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.02083333333333333</v>
+        <v>0.0196078431372549</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01507537688442211</v>
+        <v>0.01834862385321101</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1959798994974874</v>
+        <v>0.1880733944954129</v>
       </c>
       <c r="I15">
-        <v>0.03517587939698492</v>
+        <v>0.03669724770642202</v>
       </c>
       <c r="J15">
-        <v>0.3366834170854272</v>
+        <v>0.3302752293577982</v>
       </c>
       <c r="K15">
-        <v>0.05527638190954774</v>
+        <v>0.05045871559633028</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01507537688442211</v>
+        <v>0.01834862385321101</v>
       </c>
       <c r="N15">
-        <v>0.005025125628140704</v>
+        <v>0.009174311926605505</v>
       </c>
       <c r="O15">
-        <v>0.03015075376884422</v>
+        <v>0.02752293577981652</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.3115577889447236</v>
+        <v>0.3211009174311927</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01818181818181818</v>
+        <v>0.01675977653631285</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2181818181818182</v>
+        <v>0.2067039106145251</v>
       </c>
       <c r="I16">
-        <v>0.03636363636363636</v>
+        <v>0.0335195530726257</v>
       </c>
       <c r="J16">
-        <v>0.3757575757575757</v>
+        <v>0.3743016759776536</v>
       </c>
       <c r="K16">
-        <v>0.1151515151515152</v>
+        <v>0.1284916201117318</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01818181818181818</v>
+        <v>0.01675977653631285</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.0303030303030303</v>
+        <v>0.02793296089385475</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1878787878787879</v>
+        <v>0.1955307262569832</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01842105263157895</v>
+        <v>0.01927710843373494</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1868421052631579</v>
+        <v>0.1951807228915663</v>
       </c>
       <c r="I17">
-        <v>0.09210526315789473</v>
+        <v>0.0891566265060241</v>
       </c>
       <c r="J17">
-        <v>0.3868421052631579</v>
+        <v>0.380722891566265</v>
       </c>
       <c r="K17">
-        <v>0.131578947368421</v>
+        <v>0.1349397590361446</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02105263157894737</v>
+        <v>0.02409638554216868</v>
       </c>
       <c r="N17">
-        <v>0.002631578947368421</v>
+        <v>0.002409638554216868</v>
       </c>
       <c r="O17">
-        <v>0.05789473684210526</v>
+        <v>0.05301204819277108</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1026315789473684</v>
+        <v>0.1012048192771084</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.0196078431372549</v>
+        <v>0.01775147928994083</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2026143790849673</v>
+        <v>0.1952662721893491</v>
       </c>
       <c r="I18">
-        <v>0.0915032679738562</v>
+        <v>0.08284023668639054</v>
       </c>
       <c r="J18">
-        <v>0.3594771241830065</v>
+        <v>0.378698224852071</v>
       </c>
       <c r="K18">
-        <v>0.1372549019607843</v>
+        <v>0.1420118343195266</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.006535947712418301</v>
+        <v>0.005917159763313609</v>
       </c>
       <c r="N18">
-        <v>0.006535947712418301</v>
+        <v>0.005917159763313609</v>
       </c>
       <c r="O18">
-        <v>0.0392156862745098</v>
+        <v>0.04142011834319527</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1372549019607843</v>
+        <v>0.1301775147928994</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02113702623906705</v>
+        <v>0.02126200274348422</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2084548104956268</v>
+        <v>0.2139917695473251</v>
       </c>
       <c r="I19">
-        <v>0.06851311953352769</v>
+        <v>0.06858710562414266</v>
       </c>
       <c r="J19">
-        <v>0.3469387755102041</v>
+        <v>0.3381344307270233</v>
       </c>
       <c r="K19">
-        <v>0.1348396501457726</v>
+        <v>0.135116598079561</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02551020408163265</v>
+        <v>0.02400548696844993</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.0641399416909621</v>
+        <v>0.06790123456790123</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.130466472303207</v>
+        <v>0.1310013717421125</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Cal Poly_A.xlsx
+++ b/team_specific_matrix/Cal Poly_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1868512110726644</v>
+        <v>0.1826923076923077</v>
       </c>
       <c r="C2">
-        <v>0.5570934256055363</v>
+        <v>0.5673076923076923</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.006920415224913495</v>
+        <v>0.01282051282051282</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1280276816608996</v>
+        <v>0.125</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1211072664359862</v>
+        <v>0.1121794871794872</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.006097560975609756</v>
+        <v>0.005555555555555556</v>
       </c>
       <c r="C3">
-        <v>0.01219512195121951</v>
+        <v>0.01111111111111111</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02439024390243903</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7317073170731707</v>
+        <v>0.7277777777777777</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.225609756097561</v>
+        <v>0.2333333333333333</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02325581395348837</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6046511627906976</v>
+        <v>0.5869565217391305</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3720930232558139</v>
+        <v>0.391304347826087</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.09124087591240876</v>
+        <v>0.0896551724137931</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0072992700729927</v>
+        <v>0.006896551724137931</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.06204379562043796</v>
+        <v>0.06896551724137931</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.218978102189781</v>
+        <v>0.2172413793103448</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0218978102189781</v>
+        <v>0.02068965517241379</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1240875912408759</v>
+        <v>0.1241379310344828</v>
       </c>
       <c r="R6">
-        <v>0.08029197080291971</v>
+        <v>0.07931034482758621</v>
       </c>
       <c r="S6">
-        <v>0.3941605839416059</v>
+        <v>0.3931034482758621</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1061224489795918</v>
+        <v>0.1038461538461539</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02857142857142857</v>
+        <v>0.02692307692307692</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.07755102040816327</v>
+        <v>0.08076923076923077</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1265306122448979</v>
+        <v>0.1307692307692308</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01224489795918367</v>
+        <v>0.01153846153846154</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1551020408163265</v>
+        <v>0.1576923076923077</v>
       </c>
       <c r="R7">
-        <v>0.1020408163265306</v>
+        <v>0.1076923076923077</v>
       </c>
       <c r="S7">
-        <v>0.3918367346938775</v>
+        <v>0.3807692307692307</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.07569721115537849</v>
+        <v>0.08133086876155268</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02390438247011952</v>
+        <v>0.022181146025878</v>
       </c>
       <c r="E8">
-        <v>0.00199203187250996</v>
+        <v>0.001848428835489834</v>
       </c>
       <c r="F8">
-        <v>0.06772908366533864</v>
+        <v>0.07024029574861368</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.099601593625498</v>
+        <v>0.09981515711645102</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02589641434262948</v>
+        <v>0.02587800369685767</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1912350597609562</v>
+        <v>0.1866913123844732</v>
       </c>
       <c r="R8">
-        <v>0.05577689243027888</v>
+        <v>0.05730129390018484</v>
       </c>
       <c r="S8">
-        <v>0.4581673306772908</v>
+        <v>0.4547134935304991</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.07975460122699386</v>
+        <v>0.07514450867052024</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.006134969325153374</v>
+        <v>0.005780346820809248</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.09202453987730061</v>
+        <v>0.08670520231213873</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.09815950920245399</v>
+        <v>0.09248554913294797</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01226993865030675</v>
+        <v>0.01734104046242774</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1595092024539877</v>
+        <v>0.1560693641618497</v>
       </c>
       <c r="R9">
-        <v>0.09815950920245399</v>
+        <v>0.1040462427745665</v>
       </c>
       <c r="S9">
-        <v>0.4539877300613497</v>
+        <v>0.4624277456647399</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1057304277643261</v>
+        <v>0.1089939024390244</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01937046004842615</v>
+        <v>0.02057926829268293</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.08716707021791767</v>
+        <v>0.08460365853658537</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1138014527845036</v>
+        <v>0.1112804878048781</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02502017756255044</v>
+        <v>0.02515243902439025</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1799838579499596</v>
+        <v>0.1814024390243902</v>
       </c>
       <c r="R10">
-        <v>0.06456820016142049</v>
+        <v>0.06326219512195122</v>
       </c>
       <c r="S10">
-        <v>0.4043583535108959</v>
+        <v>0.4047256097560976</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1272727272727273</v>
+        <v>0.1240694789081886</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1012987012987013</v>
+        <v>0.1066997518610422</v>
       </c>
       <c r="K11">
-        <v>0.1688311688311688</v>
+        <v>0.1662531017369727</v>
       </c>
       <c r="L11">
-        <v>0.587012987012987</v>
+        <v>0.5880893300248139</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01558441558441558</v>
+        <v>0.01488833746898263</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7264957264957265</v>
+        <v>0.7346938775510204</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2051282051282051</v>
+        <v>0.2</v>
       </c>
       <c r="K12">
-        <v>0.008547008547008548</v>
+        <v>0.00816326530612245</v>
       </c>
       <c r="L12">
-        <v>0.0170940170940171</v>
+        <v>0.0163265306122449</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.04273504273504274</v>
+        <v>0.04081632653061224</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7254901960784313</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2549019607843137</v>
+        <v>0.2456140350877193</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.0196078431372549</v>
+        <v>0.01754385964912281</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01834862385321101</v>
+        <v>0.01716738197424893</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1880733944954129</v>
+        <v>0.1802575107296137</v>
       </c>
       <c r="I15">
-        <v>0.03669724770642202</v>
+        <v>0.04291845493562232</v>
       </c>
       <c r="J15">
-        <v>0.3302752293577982</v>
+        <v>0.3347639484978541</v>
       </c>
       <c r="K15">
-        <v>0.05045871559633028</v>
+        <v>0.04721030042918455</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01834862385321101</v>
+        <v>0.01716738197424893</v>
       </c>
       <c r="N15">
-        <v>0.009174311926605505</v>
+        <v>0.008583690987124463</v>
       </c>
       <c r="O15">
-        <v>0.02752293577981652</v>
+        <v>0.03004291845493562</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.3211009174311927</v>
+        <v>0.3218884120171674</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01675977653631285</v>
+        <v>0.0155440414507772</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2067039106145251</v>
+        <v>0.2227979274611399</v>
       </c>
       <c r="I16">
-        <v>0.0335195530726257</v>
+        <v>0.0310880829015544</v>
       </c>
       <c r="J16">
-        <v>0.3743016759776536</v>
+        <v>0.3678756476683938</v>
       </c>
       <c r="K16">
-        <v>0.1284916201117318</v>
+        <v>0.1191709844559585</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01675977653631285</v>
+        <v>0.0155440414507772</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.02793296089385475</v>
+        <v>0.02590673575129534</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1955307262569832</v>
+        <v>0.2020725388601036</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01927710843373494</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1951807228915663</v>
+        <v>0.1972789115646258</v>
       </c>
       <c r="I17">
-        <v>0.0891566265060241</v>
+        <v>0.08843537414965986</v>
       </c>
       <c r="J17">
-        <v>0.380722891566265</v>
+        <v>0.3764172335600907</v>
       </c>
       <c r="K17">
-        <v>0.1349397590361446</v>
+        <v>0.1383219954648526</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02409638554216868</v>
+        <v>0.02267573696145125</v>
       </c>
       <c r="N17">
-        <v>0.002409638554216868</v>
+        <v>0.00453514739229025</v>
       </c>
       <c r="O17">
-        <v>0.05301204819277108</v>
+        <v>0.04988662131519275</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1012048192771084</v>
+        <v>0.1020408163265306</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01775147928994083</v>
+        <v>0.02209944751381215</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1952662721893491</v>
+        <v>0.1988950276243094</v>
       </c>
       <c r="I18">
-        <v>0.08284023668639054</v>
+        <v>0.08287292817679558</v>
       </c>
       <c r="J18">
-        <v>0.378698224852071</v>
+        <v>0.3867403314917127</v>
       </c>
       <c r="K18">
-        <v>0.1420118343195266</v>
+        <v>0.1325966850828729</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.005917159763313609</v>
+        <v>0.005524861878453038</v>
       </c>
       <c r="N18">
-        <v>0.005917159763313609</v>
+        <v>0.005524861878453038</v>
       </c>
       <c r="O18">
-        <v>0.04142011834319527</v>
+        <v>0.03867403314917127</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1301775147928994</v>
+        <v>0.1270718232044199</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02126200274348422</v>
+        <v>0.02</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2139917695473251</v>
+        <v>0.2161290322580645</v>
       </c>
       <c r="I19">
-        <v>0.06858710562414266</v>
+        <v>0.06774193548387097</v>
       </c>
       <c r="J19">
-        <v>0.3381344307270233</v>
+        <v>0.335483870967742</v>
       </c>
       <c r="K19">
-        <v>0.135116598079561</v>
+        <v>0.1341935483870968</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02400548696844993</v>
+        <v>0.02580645161290323</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.06790123456790123</v>
+        <v>0.06903225806451613</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1310013717421125</v>
+        <v>0.1316129032258065</v>
       </c>
     </row>
   </sheetData>
